--- a/MODOT/src/test/resources/DataProvider/gfgcontribute.xlsx
+++ b/MODOT/src/test/resources/DataProvider/gfgcontribute.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387C6D50-E04B-4689-A61F-EBCE2B6A9654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41439F56-3BE4-4C32-959E-480F60244129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Account" r:id="rId5" sheetId="2"/>
+    <sheet name="Fleet" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,21 +27,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>MCE Customer ID</t>
   </si>
   <si>
+    <t>987897465</t>
+  </si>
+  <si>
+    <t>Carrier Type</t>
+  </si>
+  <si>
+    <t>C - CARRIER</t>
+  </si>
+  <si>
+    <t>IFTA Account No.</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Carrier Type</t>
-  </si>
-  <si>
-    <t>IFTA Account No.</t>
-  </si>
-  <si>
     <t>Customer Status</t>
+  </si>
+  <si>
+    <t>A - ACTIVE</t>
+  </si>
+  <si>
+    <t>Registrant Type</t>
+  </si>
+  <si>
+    <t>Fleet Status</t>
+  </si>
+  <si>
+    <t>C-CARRIER</t>
+  </si>
+  <si>
+    <t>DBA Name</t>
+  </si>
+  <si>
+    <t>SUCCESS NATIONALEASE</t>
   </si>
 </sst>
 </file>
@@ -371,14 +396,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -386,25 +410,65 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
